--- a/mim_startex/outs/F PO110969 - 101423 ARJUN - BZ.xlsx
+++ b/mim_startex/outs/F PO110969 - 101423 ARJUN - BZ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Barcode</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Total Qty.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -568,11 +573,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -658,6 +659,11 @@
       <c r="W2" t="inlineStr">
         <is>
           <t>5715524357282</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -679,11 +685,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -769,6 +771,11 @@
       <c r="W3" t="inlineStr">
         <is>
           <t>5715524357299</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -790,11 +797,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -880,6 +883,11 @@
       <c r="W4" t="inlineStr">
         <is>
           <t>5715524357305</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -901,11 +909,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -991,6 +995,11 @@
       <c r="W5" t="inlineStr">
         <is>
           <t>5715524357312</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1012,11 +1021,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1102,6 +1107,11 @@
       <c r="W6" t="inlineStr">
         <is>
           <t>5715524357329</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1123,11 +1133,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1213,6 +1219,11 @@
       <c r="W7" t="inlineStr">
         <is>
           <t>5711703315364</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1234,11 +1245,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1324,6 +1331,11 @@
       <c r="W8" t="inlineStr">
         <is>
           <t>5711703315371</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1345,11 +1357,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1435,6 +1443,11 @@
       <c r="W9" t="inlineStr">
         <is>
           <t>5711703315388</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1456,11 +1469,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1546,6 +1555,11 @@
       <c r="W10" t="inlineStr">
         <is>
           <t>5711703315395</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1567,11 +1581,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1657,6 +1667,11 @@
       <c r="W11" t="inlineStr">
         <is>
           <t>5711703315401</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1678,11 +1693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1768,6 +1779,11 @@
       <c r="W12" t="inlineStr">
         <is>
           <t>5711703453646</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1789,11 +1805,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1879,6 +1891,11 @@
       <c r="W13" t="inlineStr">
         <is>
           <t>5711703453653</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -1900,11 +1917,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1990,6 +2003,11 @@
       <c r="W14" t="inlineStr">
         <is>
           <t>5711703453660</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2011,11 +2029,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2101,6 +2115,11 @@
       <c r="W15" t="inlineStr">
         <is>
           <t>5711703453677</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2122,11 +2141,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2212,6 +2227,11 @@
       <c r="W16" t="inlineStr">
         <is>
           <t>5711703453684</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2233,11 +2253,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2323,6 +2339,11 @@
       <c r="W17" t="inlineStr">
         <is>
           <t>5711703315180</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2344,11 +2365,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2434,6 +2451,11 @@
       <c r="W18" t="inlineStr">
         <is>
           <t>5711703315197</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2455,11 +2477,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2545,6 +2563,11 @@
       <c r="W19" t="inlineStr">
         <is>
           <t>5711703315203</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2566,11 +2589,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2656,6 +2675,11 @@
       <c r="W20" t="inlineStr">
         <is>
           <t>5711703315210</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2677,11 +2701,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2767,6 +2787,11 @@
       <c r="W21" t="inlineStr">
         <is>
           <t>5711703315227</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2788,11 +2813,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2878,6 +2899,11 @@
       <c r="W22" t="inlineStr">
         <is>
           <t>5711703407533</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2899,11 +2925,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2989,6 +3011,11 @@
       <c r="W23" t="inlineStr">
         <is>
           <t>5711703407540</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -3010,11 +3037,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3100,6 +3123,11 @@
       <c r="W24" t="inlineStr">
         <is>
           <t>5711703407557</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -3121,11 +3149,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3211,6 +3235,11 @@
       <c r="W25" t="inlineStr">
         <is>
           <t>5711703407564</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -3232,11 +3261,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HT LAGER
-Nikolaj Pedersen
-Kløvermarken 116
-7190 Billund
-Denmark</t>
+          <t>HT LAGER, Nikolaj Pedersen, Kløvermarken 116, 7190 Billund, Denmark</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3322,6 +3347,11 @@
       <c r="W26" t="inlineStr">
         <is>
           <t>5711703407571</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2460</t>
         </is>
       </c>
     </row>
